--- a/Lectures final assignment/Final Assigment/CG - Final Assignment - Evaluation Form.xlsx
+++ b/Lectures final assignment/Final Assigment/CG - Final Assignment - Evaluation Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\git\jaar3-computer-graphics\Lectures final assignment\Final Assigment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EEFA33-FBEB-46CC-A814-688BF63B5F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CCF417-EA7D-4E83-9118-E9E1F2B59272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5316" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="112">
   <si>
     <t>Knock-out criteria</t>
   </si>
@@ -333,6 +333,42 @@
   </si>
   <si>
     <t>Danny van Bokhorst</t>
+  </si>
+  <si>
+    <t>In totaal zijn er 4 modellen: chair, house, marketstall en tree. Er kunnen makkelijk meer modellen worden gemaakt door over te erven van de Model class en entities toe te voegen aan deze nieuwe class.</t>
+  </si>
+  <si>
+    <t>Elke model maakt gebruikt van shapes. House bestaat uit cubes, hexagons (schoorsteen), icosahedron (rook) en een triangular prism (voor het dak). Chair maakt gebruik van cubes en hexagons. Marketstalls maakt gebruik can cubes, hexagons en wedges (objecten op de tafel zijn ingeladen objects). Tree maakt gebruik van hexagons en piramides OF ingeladen spheres en cilinders (dus objecten).</t>
+  </si>
+  <si>
+    <t>Er is een zelfgemaakte ufo die rondvliegt.</t>
+  </si>
+  <si>
+    <t>Huis cubes hebben een texture (Yellobrk), de grond heeft een texture (grass), ufo heeft een texture (silver2), bomen (als ze gebruik maken van objecten) maken gebruik van textures (leaves and treewood) en de market stall cubes maken gebruik van textures (wood) en de donuts op de market stall cubes hebben er ook een (donut). Er kan makkelijk meer textures wordenm toegevoegd aan de constructor van de meeste shapes en alle objecten.</t>
+  </si>
+  <si>
+    <t>De ufo maakt gebruik van twee animaties tegelijkertijd: Animate_MoveLeftAndReset en Animate_GoUpAndThenDown. Verder maakt de rook dat uit huizen komt gebruik van rotation en Animate_GoUpAndReset. Ook heel makkelijk om nieuwe toe te voegen met de base class animation. Je hoeft ze alleen als een lijst mee te geven aan de constructor!</t>
+  </si>
+  <si>
+    <t>Er zijn 3 fragment- en vertexshaders. Basic voor de shapes die geen normals of uvs hebben (basicvs.vert en basicfs.frag), basictexture voor de shapes die wel UV's hebben maar geen normals (basictexturevs.vert en basictexturefs.frag) en Phong (phongvs.vert en phongfs.frag) waar in de init shaders voor licht wordt gezorgd.</t>
+  </si>
+  <si>
+    <t>Je kan met je muis bewegen om rond te kijken, je kan met WASD of de arrow keys bewegen in de wereld en je kan ook de camera draaien met IJKL (net als met de muis).</t>
+  </si>
+  <si>
+    <t>Je kan correct switchen tussen walk mode en drone mode. Het onthoudt ook waar je camera stond en de positie ervan.</t>
+  </si>
+  <si>
+    <t>Zo veel mogelijk functies uitgelegd in de .h files. In de CPP files leg ik vaak uit wat er gebeurt in die functie en leg ik moeilijke dingen uit, zoals bij de movement class.</t>
+  </si>
+  <si>
+    <t>Bomen hebben leaves, de grond heeft grass, de huizen hebben bricks, gaan ook goed over elkaar heen.</t>
+  </si>
+  <si>
+    <t>Een iet wat makkelijk scene gemaakt. Niet specifiek een thema, maar heb vooral gedaan wat ik bij Assigment 1 ook had gedaan. Bomen, huizen en een UFO.</t>
+  </si>
+  <si>
+    <t>Animation is een base class die wordt gebruikt voor elke animatie, zoals Animate_GoUpAndThenDown. Shape is een class die wordt gebruikt voor elke shape, zoals de cube en hexagon. Object wordt gebruikt voor elke object als die worden ingeladen, bijvoorbeeld de Ufo. Model wordt gebruikt voor elk model, zoals house en chair. De entity class wordt weer gebruikt door de shape en object class en dus ook voor elke object en shape. Alle objecten en shapes of models worden ingeladen in de world class, om het overzichtelijk te houden.</t>
   </si>
 </sst>
 </file>
@@ -1318,8 +1354,8 @@
   </sheetPr>
   <dimension ref="B2:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1482,7 +1518,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="57" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:13" ht="71.25" x14ac:dyDescent="0.45">
       <c r="C19" s="4" t="s">
         <v>84</v>
       </c>
@@ -1500,9 +1536,11 @@
       <c r="K19" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="M19" s="31"/>
-    </row>
-    <row r="20" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="M19" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="142.5" x14ac:dyDescent="0.45">
       <c r="C20" s="4" t="s">
         <v>85</v>
       </c>
@@ -1520,7 +1558,9 @@
       <c r="K20" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="M20" s="32"/>
+      <c r="M20" s="32" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C21" s="4" t="s">
@@ -1540,9 +1580,11 @@
       <c r="K21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="M21" s="32"/>
-    </row>
-    <row r="22" spans="2:13" ht="57" x14ac:dyDescent="0.45">
+      <c r="M21" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="156.75" x14ac:dyDescent="0.45">
       <c r="C22" s="4" t="s">
         <v>53</v>
       </c>
@@ -1560,9 +1602,11 @@
       <c r="K22" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M22" s="32"/>
-    </row>
-    <row r="23" spans="2:13" ht="57" x14ac:dyDescent="0.45">
+      <c r="M22" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="128.25" x14ac:dyDescent="0.45">
       <c r="C23" s="4" t="s">
         <v>32</v>
       </c>
@@ -1580,9 +1624,11 @@
       <c r="K23" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="M23" s="32"/>
-    </row>
-    <row r="24" spans="2:13" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="M23" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="128.25" x14ac:dyDescent="0.45">
       <c r="C24" s="4" t="s">
         <v>82</v>
       </c>
@@ -1600,9 +1646,11 @@
       <c r="K24" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M24" s="32"/>
-    </row>
-    <row r="25" spans="2:13" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="M24" s="32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="71.25" x14ac:dyDescent="0.45">
       <c r="C25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1620,7 +1668,9 @@
       <c r="K25" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="M25" s="32"/>
+      <c r="M25" s="32" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="26" spans="2:13" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C26" s="4" t="s">
@@ -1638,7 +1688,9 @@
         <v>93</v>
       </c>
       <c r="K26" s="48"/>
-      <c r="M26" s="33"/>
+      <c r="M26" s="33" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="28" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="3" t="s">
@@ -1667,7 +1719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" ht="199.5" x14ac:dyDescent="0.45">
       <c r="C29" s="4" t="s">
         <v>59</v>
       </c>
@@ -1685,7 +1737,9 @@
       <c r="K29" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M29" s="28"/>
+      <c r="M29" s="28" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="30" spans="2:13" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C30" s="4" t="s">
@@ -1705,7 +1759,9 @@
       <c r="K30" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M30" s="29"/>
+      <c r="M30" s="29" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="32" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="3" t="s">
@@ -1750,7 +1806,9 @@
         <v>75</v>
       </c>
       <c r="K33" s="39"/>
-      <c r="M33" s="28"/>
+      <c r="M33" s="28" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="34" spans="3:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C34" s="4" t="s">
@@ -1770,7 +1828,7 @@
       <c r="K34" s="39"/>
       <c r="M34" s="28"/>
     </row>
-    <row r="35" spans="3:13" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="3:13" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C35" s="4" t="s">
         <v>60</v>
       </c>
@@ -1788,7 +1846,9 @@
       <c r="K35" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="M35" s="29"/>
+      <c r="M35" s="29" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C36" s="4"/>
@@ -1916,32 +1976,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-    <SharedWithUsers xmlns="7178be8b-d0ef-4995-97d9-396f4bad9a56">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="0c2036bf52fce6a572da55f07fac53b0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46a6dac1cb1c034944cf78d34111dc32" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2181,33 +2215,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704D0896-41A1-4D8E-B2B4-DAF4537F2CEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
-    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95702B07-5163-4733-93F0-15C1454EB37E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+    <SharedWithUsers xmlns="7178be8b-d0ef-4995-97d9-396f4bad9a56">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{169FD9BA-39C5-40E5-9D02-8D3DF9B0119E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2225,4 +2259,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95702B07-5163-4733-93F0-15C1454EB37E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704D0896-41A1-4D8E-B2B4-DAF4537F2CEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>